--- a/data/Excel/Carnival_Gaming_and_Medal_Esports_stats.xlsx
+++ b/data/Excel/Carnival_Gaming_and_Medal_Esports_stats.xlsx
@@ -472,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="K5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -664,27 +664,47 @@
           <t>Surve</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v/>
-      </c>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="O6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -739,22 +759,22 @@
         </is>
       </c>
       <c r="K7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -768,27 +788,47 @@
           <t>LilBOii</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v/>
-      </c>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="O8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -843,22 +883,22 @@
         </is>
       </c>
       <c r="K9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -913,22 +953,22 @@
         </is>
       </c>
       <c r="K10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -983,22 +1023,22 @@
         </is>
       </c>
       <c r="K11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1054,32 +1094,32 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="M12" s="3" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="O12" s="3" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="P12" s="3" t="inlineStr">
-        <is>
-          <t>57</t>
         </is>
       </c>
     </row>
@@ -1136,32 +1176,32 @@
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="O13" s="3" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>57</t>
         </is>
       </c>
     </row>
@@ -1218,32 +1258,32 @@
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
           <t>0.65</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>57</t>
         </is>
       </c>
     </row>
@@ -1300,32 +1340,32 @@
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
           <t>0.35</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="N15" s="3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="P15" s="3" t="inlineStr">
-        <is>
-          <t>37</t>
         </is>
       </c>
     </row>
@@ -1351,10 +1391,10 @@
         </is>
       </c>
       <c r="E16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
@@ -1378,32 +1418,32 @@
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
+        <is>
           <t>0.53</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
